--- a/metrics_build/Performance progress data.xlsx
+++ b/metrics_build/Performance progress data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2709" documentId="11_B5CB83442AC358CD4B68348628EAAA17910267F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BDB8FE2-C460-499E-BBB8-58FEACEDDE73}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\grodriguez\CardiacOCT\metrics_build\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104178BB-9E38-4971-A16E-BB6B001C1AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test set" sheetId="1" r:id="rId1"/>
@@ -57,8 +62,17 @@
     </comment>
     <comment ref="A33" authorId="0" shapeId="0" xr:uid="{1C0FBDDB-40C5-49CA-9152-7673506E9420}">
       <text>
-        <t>Volleberg, Rick:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Volleberg, Rick:
 Nearest neighbour added to algorithm</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -430,7 +444,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,7 +545,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="68">
     <dxf>
@@ -914,7 +928,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1947,7 +1961,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5919,7 +5933,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9891,7 +9905,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10651,7 +10665,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11060,7 +11074,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11745,7 +11759,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12291,7 +12305,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12907,7 +12921,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13608,7 +13622,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14307,7 +14321,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15008,7 +15022,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15707,7 +15721,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -24695,19 +24709,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="79.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="79.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24721,7 +24735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -24732,7 +24746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -24743,7 +24757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -24754,7 +24768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -24765,7 +24779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -24776,7 +24790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -24787,7 +24801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -24798,7 +24812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -24812,7 +24826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -24826,7 +24840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -24837,7 +24851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -24848,7 +24862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -24859,7 +24873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -24870,7 +24884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -24881,7 +24895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -24911,47 +24925,47 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="11.85546875" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.28515625" customWidth="1"/>
-    <col min="24" max="28" width="11.85546875" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="34" width="14.85546875" customWidth="1"/>
-    <col min="35" max="35" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="40" width="21.7109375" customWidth="1"/>
-    <col min="41" max="41" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="46" width="20.42578125" customWidth="1"/>
-    <col min="47" max="47" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.5703125" customWidth="1"/>
-    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.88671875" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.109375" customWidth="1"/>
+    <col min="21" max="21" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.33203125" customWidth="1"/>
+    <col min="24" max="28" width="11.88671875" customWidth="1"/>
+    <col min="29" max="29" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="34" width="14.88671875" customWidth="1"/>
+    <col min="35" max="35" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="40" width="21.6640625" customWidth="1"/>
+    <col min="41" max="41" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="46" width="20.44140625" customWidth="1"/>
+    <col min="47" max="47" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25.5546875" customWidth="1"/>
+    <col min="51" max="51" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="1:58">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -25127,7 +25141,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:58">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -25303,7 +25317,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:58">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -25479,7 +25493,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:58">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -25669,27 +25683,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861E3E09-9FE6-45CF-A78F-40B19856F709}">
   <dimension ref="A1:AE166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K132" sqref="A132:XFD132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25754,7 +25768,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -25816,7 +25830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -25878,7 +25892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -25940,7 +25954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -26002,7 +26016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -26064,7 +26078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -26126,7 +26140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -26188,7 +26202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -26250,7 +26264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -26313,7 +26327,7 @@
       </c>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -26376,7 +26390,7 @@
       </c>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -26439,7 +26453,7 @@
       </c>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -26502,7 +26516,7 @@
       </c>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -26565,7 +26579,7 @@
       </c>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -26628,7 +26642,7 @@
       </c>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -26691,7 +26705,7 @@
       </c>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -26754,7 +26768,7 @@
       </c>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -26817,7 +26831,7 @@
       </c>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -26880,7 +26894,7 @@
       </c>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -26943,7 +26957,7 @@
       </c>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -27006,7 +27020,7 @@
       </c>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -27069,7 +27083,7 @@
       </c>
       <c r="AE22" s="1"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -27132,7 +27146,7 @@
       </c>
       <c r="AE23" s="1"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -27197,7 +27211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -27262,7 +27276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -27327,7 +27341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -27392,7 +27406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -27457,7 +27471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -27522,7 +27536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -27587,7 +27601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -27652,7 +27666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -27717,7 +27731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -27783,7 +27797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -27845,7 +27859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -27907,7 +27921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -27969,7 +27983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -28031,7 +28045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -28093,7 +28107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -28155,7 +28169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -28217,7 +28231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -28279,7 +28293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -28342,7 +28356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -28405,7 +28419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -28468,7 +28482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -28530,7 +28544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -28592,7 +28606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -28654,7 +28668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -28716,7 +28730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -28778,7 +28792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -28840,7 +28854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -28902,7 +28916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -28964,7 +28978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -29026,7 +29040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -29088,7 +29102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -29150,7 +29164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -29215,7 +29229,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -29277,7 +29291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -29339,7 +29353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -29401,7 +29415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -29463,7 +29477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -29525,7 +29539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -29587,7 +29601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -29649,7 +29663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -29711,7 +29725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -29773,7 +29787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -29835,7 +29849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -29897,7 +29911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -29959,7 +29973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -30021,7 +30035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -30083,7 +30097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -30145,7 +30159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -30207,7 +30221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -30269,7 +30283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -30331,7 +30345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -30393,7 +30407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -30455,7 +30469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -30517,7 +30531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -30579,7 +30593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -30644,7 +30658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -30709,7 +30723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -30774,7 +30788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -30839,7 +30853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -30904,7 +30918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -30969,7 +30983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -31034,7 +31048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -31099,7 +31113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -31164,7 +31178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -31229,7 +31243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -31294,7 +31308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -31359,7 +31373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -31424,7 +31438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -31489,7 +31503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -31554,7 +31568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -31619,7 +31633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -31684,7 +31698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -31749,7 +31763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -31814,7 +31828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -31876,7 +31890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -31938,7 +31952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -32000,7 +32014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -32062,7 +32076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -32124,7 +32138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -32186,7 +32200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -32248,7 +32262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -32310,7 +32324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -32372,7 +32386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>25</v>
       </c>
@@ -32434,7 +32448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -32496,7 +32510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>25</v>
       </c>
@@ -32558,7 +32572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -32620,7 +32634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -32682,7 +32696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -32744,7 +32758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -32806,7 +32820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -32868,7 +32882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -32930,7 +32944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -32992,7 +33006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -33054,7 +33068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>27</v>
       </c>
@@ -33116,7 +33130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -33178,7 +33192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -33240,7 +33254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -33302,7 +33316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -33364,7 +33378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -33426,7 +33440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -33488,7 +33502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -33550,7 +33564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -33612,7 +33626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>29</v>
       </c>
@@ -33675,7 +33689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>29</v>
       </c>
@@ -33737,7 +33751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -33799,7 +33813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>29</v>
       </c>
@@ -33864,7 +33878,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -33929,7 +33943,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>29</v>
       </c>
@@ -33992,7 +34006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>29</v>
       </c>
@@ -34054,7 +34068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>29</v>
       </c>
@@ -34116,7 +34130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -34178,7 +34192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -34240,7 +34254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>29</v>
       </c>
@@ -34302,7 +34316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>29</v>
       </c>
@@ -34364,7 +34378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>29</v>
       </c>
@@ -34426,7 +34440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>29</v>
       </c>
@@ -34488,7 +34502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -34550,7 +34564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -34612,7 +34626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -34674,7 +34688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -34736,7 +34750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -34798,7 +34812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -34860,7 +34874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -34922,7 +34936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -34984,7 +34998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -35046,7 +35060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -35108,7 +35122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -35170,7 +35184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>31</v>
       </c>
@@ -35232,7 +35246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>31</v>
       </c>
@@ -35294,7 +35308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -35356,7 +35370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -35418,7 +35432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -35480,7 +35494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>31</v>
       </c>
@@ -35542,7 +35556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -35604,7 +35618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -35666,7 +35680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -35728,7 +35742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -35790,7 +35804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -35852,7 +35866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -35914,10 +35928,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M164" s="1"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -35934,28 +35948,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963F4718-8555-4095-97B0-201AC33A35BF}">
   <dimension ref="A1:AE166"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+    <sheetView topLeftCell="I67" workbookViewId="0">
+      <selection activeCell="P132" activeCellId="2" sqref="P127 P130 P132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36020,7 +36034,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -36082,7 +36096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -36144,7 +36158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -36206,7 +36220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -36268,7 +36282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -36330,7 +36344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -36392,7 +36406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -36454,7 +36468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -36516,7 +36530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -36579,7 +36593,7 @@
       </c>
       <c r="AE10" s="4"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -36642,7 +36656,7 @@
       </c>
       <c r="AE11" s="4"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -36705,7 +36719,7 @@
       </c>
       <c r="AE12" s="4"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -36768,7 +36782,7 @@
       </c>
       <c r="AE13" s="4"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -36831,7 +36845,7 @@
       </c>
       <c r="AE14" s="4"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -36894,7 +36908,7 @@
       </c>
       <c r="AE15" s="4"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -36957,7 +36971,7 @@
       </c>
       <c r="AE16" s="4"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -37020,7 +37034,7 @@
       </c>
       <c r="AE17" s="4"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -37083,7 +37097,7 @@
       </c>
       <c r="AE18" s="4"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -37146,7 +37160,7 @@
       </c>
       <c r="AE19" s="4"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -37209,7 +37223,7 @@
       </c>
       <c r="AE20" s="4"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -37272,7 +37286,7 @@
       </c>
       <c r="AE21" s="4"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -37335,7 +37349,7 @@
       </c>
       <c r="AE22" s="4"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -37398,7 +37412,7 @@
       </c>
       <c r="AE23" s="4"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -37463,7 +37477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -37528,7 +37542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -37593,7 +37607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -37658,7 +37672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -37723,7 +37737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -37788,7 +37802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -37853,7 +37867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -37918,7 +37932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -37983,7 +37997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -38049,7 +38063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -38111,7 +38125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -38173,7 +38187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -38235,7 +38249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -38297,7 +38311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -38359,7 +38373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -38421,7 +38435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -38483,7 +38497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -38545,7 +38559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -38608,7 +38622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -38671,7 +38685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -38734,7 +38748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -38796,7 +38810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -38858,7 +38872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -38920,7 +38934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -38982,7 +38996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -39044,7 +39058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -39106,7 +39120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -39168,7 +39182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -39230,7 +39244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -39292,7 +39306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -39354,7 +39368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -39416,7 +39430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -39481,7 +39495,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -39543,7 +39557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -39605,7 +39619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -39667,7 +39681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -39729,7 +39743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -39791,7 +39805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -39853,7 +39867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -39915,7 +39929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -39977,7 +39991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -40039,7 +40053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -40101,7 +40115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -40163,7 +40177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -40225,7 +40239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -40287,7 +40301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -40349,7 +40363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -40411,7 +40425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -40473,7 +40487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -40535,7 +40549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -40597,7 +40611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -40659,7 +40673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -40721,7 +40735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -40783,7 +40797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -40845,7 +40859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -40910,7 +40924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -40975,7 +40989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -41040,7 +41054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -41105,7 +41119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -41170,7 +41184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -41235,7 +41249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -41300,7 +41314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -41365,7 +41379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -41430,7 +41444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -41495,7 +41509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -41560,7 +41574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -41625,7 +41639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -41690,7 +41704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -41755,7 +41769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -41820,7 +41834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -41885,7 +41899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -41950,7 +41964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -42015,7 +42029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -42080,7 +42094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -42142,7 +42156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -42204,7 +42218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -42266,7 +42280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -42328,7 +42342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -42390,7 +42404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -42452,7 +42466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -42514,7 +42528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -42576,7 +42590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -42638,7 +42652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>25</v>
       </c>
@@ -42700,7 +42714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -42762,7 +42776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>25</v>
       </c>
@@ -42824,7 +42838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -42886,7 +42900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -42948,7 +42962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -43010,7 +43024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -43072,7 +43086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -43134,7 +43148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -43196,7 +43210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -43258,7 +43272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -43320,7 +43334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>27</v>
       </c>
@@ -43382,7 +43396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -43444,7 +43458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -43506,7 +43520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -43568,7 +43582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -43630,7 +43644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -43692,7 +43706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -43754,7 +43768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -43816,7 +43830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -43878,7 +43892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>29</v>
       </c>
@@ -43941,7 +43955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>29</v>
       </c>
@@ -44003,7 +44017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -44065,7 +44079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>29</v>
       </c>
@@ -44130,7 +44144,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -44195,7 +44209,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>29</v>
       </c>
@@ -44258,7 +44272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>29</v>
       </c>
@@ -44320,7 +44334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>29</v>
       </c>
@@ -44382,7 +44396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -44444,7 +44458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -44506,7 +44520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>29</v>
       </c>
@@ -44568,7 +44582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>29</v>
       </c>
@@ -44630,7 +44644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>29</v>
       </c>
@@ -44692,7 +44706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>29</v>
       </c>
@@ -44754,7 +44768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -44816,7 +44830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -44878,7 +44892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -44940,7 +44954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -45002,7 +45016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -45064,7 +45078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -45126,7 +45140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -45188,7 +45202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -45250,7 +45264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -45312,7 +45326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -45374,7 +45388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -45436,7 +45450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>31</v>
       </c>
@@ -45498,7 +45512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>31</v>
       </c>
@@ -45560,7 +45574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -45622,7 +45636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -45684,7 +45698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -45746,7 +45760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>31</v>
       </c>
@@ -45808,7 +45822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -45870,7 +45884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -45932,7 +45946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -45994,7 +46008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -46056,7 +46070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -46118,7 +46132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -46180,7 +46194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -46197,28 +46211,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8906639-41C2-4FAC-ABFD-0F084173DA84}">
   <dimension ref="A1:AE165"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P134" activeCellId="4" sqref="K142 P130 P127 P132 P134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -46283,7 +46297,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -46345,7 +46359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -46407,7 +46421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -46469,7 +46483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -46531,7 +46545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -46593,7 +46607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -46655,7 +46669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -46717,7 +46731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -46779,7 +46793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -46842,7 +46856,7 @@
       </c>
       <c r="AE10" s="4"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -46905,7 +46919,7 @@
       </c>
       <c r="AE11" s="4"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -46968,7 +46982,7 @@
       </c>
       <c r="AE12" s="4"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -47031,7 +47045,7 @@
       </c>
       <c r="AE13" s="4"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -47094,7 +47108,7 @@
       </c>
       <c r="AE14" s="4"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -47157,7 +47171,7 @@
       </c>
       <c r="AE15" s="4"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -47220,7 +47234,7 @@
       </c>
       <c r="AE16" s="4"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -47283,7 +47297,7 @@
       </c>
       <c r="AE17" s="4"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -47346,7 +47360,7 @@
       </c>
       <c r="AE18" s="4"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -47409,7 +47423,7 @@
       </c>
       <c r="AE19" s="4"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -47472,7 +47486,7 @@
       </c>
       <c r="AE20" s="4"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -47535,7 +47549,7 @@
       </c>
       <c r="AE21" s="4"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -47598,7 +47612,7 @@
       </c>
       <c r="AE22" s="4"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -47661,7 +47675,7 @@
       </c>
       <c r="AE23" s="4"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -47726,7 +47740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -47791,7 +47805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -47856,7 +47870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -47921,7 +47935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -47986,7 +48000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -48051,7 +48065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -48116,7 +48130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -48181,7 +48195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -48246,7 +48260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -48312,7 +48326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -48374,7 +48388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -48436,7 +48450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -48498,7 +48512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -48560,7 +48574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -48622,7 +48636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -48684,7 +48698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -48746,7 +48760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -48808,7 +48822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -48871,7 +48885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -48934,7 +48948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -48997,7 +49011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -49059,7 +49073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -49121,7 +49135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -49183,7 +49197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -49245,7 +49259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -49307,7 +49321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -49369,7 +49383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -49431,7 +49445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -49493,7 +49507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -49555,7 +49569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -49617,7 +49631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -49679,7 +49693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -49744,7 +49758,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -49806,7 +49820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -49868,7 +49882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -49930,7 +49944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -49992,7 +50006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -50054,7 +50068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -50116,7 +50130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -50178,7 +50192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -50240,7 +50254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -50302,7 +50316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -50364,7 +50378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -50426,7 +50440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -50488,7 +50502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -50550,7 +50564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -50612,7 +50626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -50674,7 +50688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -50736,7 +50750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -50798,7 +50812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -50860,7 +50874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -50922,7 +50936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -50984,7 +50998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -51046,7 +51060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -51108,7 +51122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -51173,7 +51187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -51238,7 +51252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -51303,7 +51317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -51368,7 +51382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -51433,7 +51447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -51498,7 +51512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -51563,7 +51577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -51628,7 +51642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -51693,7 +51707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -51758,7 +51772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -51823,7 +51837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -51888,7 +51902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -51953,7 +51967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -52018,7 +52032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -52083,7 +52097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -52148,7 +52162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -52213,7 +52227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -52278,7 +52292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -52343,7 +52357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -52405,7 +52419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -52467,7 +52481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -52529,7 +52543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -52591,7 +52605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -52653,7 +52667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -52715,7 +52729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -52777,7 +52791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -52839,7 +52853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -52901,7 +52915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>25</v>
       </c>
@@ -52963,7 +52977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -53025,7 +53039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>25</v>
       </c>
@@ -53087,7 +53101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -53149,7 +53163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -53211,7 +53225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -53273,7 +53287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -53335,7 +53349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -53397,7 +53411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -53459,7 +53473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -53521,7 +53535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -53583,7 +53597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>27</v>
       </c>
@@ -53645,7 +53659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -53707,7 +53721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -53769,7 +53783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -53831,7 +53845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -53893,7 +53907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -53955,7 +53969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -54017,7 +54031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -54079,7 +54093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -54141,7 +54155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>29</v>
       </c>
@@ -54204,7 +54218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>29</v>
       </c>
@@ -54266,7 +54280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -54328,7 +54342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>29</v>
       </c>
@@ -54393,7 +54407,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -54458,7 +54472,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>29</v>
       </c>
@@ -54521,7 +54535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>29</v>
       </c>
@@ -54583,7 +54597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>29</v>
       </c>
@@ -54645,7 +54659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -54707,7 +54721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -54769,7 +54783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>29</v>
       </c>
@@ -54831,7 +54845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>29</v>
       </c>
@@ -54893,7 +54907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>29</v>
       </c>
@@ -54955,7 +54969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>29</v>
       </c>
@@ -55017,7 +55031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -55079,7 +55093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -55141,7 +55155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -55203,7 +55217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -55265,7 +55279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -55327,7 +55341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -55389,7 +55403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -55451,7 +55465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -55513,7 +55527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -55575,7 +55589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -55637,7 +55651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -55699,7 +55713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>31</v>
       </c>
@@ -55761,7 +55775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>31</v>
       </c>
@@ -55823,7 +55837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -55885,7 +55899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -55947,7 +55961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -56009,7 +56023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>31</v>
       </c>
@@ -56071,7 +56085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -56133,7 +56147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -56195,7 +56209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -56257,7 +56271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -56319,7 +56333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -56381,7 +56395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -56443,7 +56457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>33</v>
       </c>
@@ -56464,24 +56478,24 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -56546,7 +56560,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -56590,7 +56604,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -56634,7 +56648,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -56678,7 +56692,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -56722,7 +56736,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -56766,7 +56780,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -56810,7 +56824,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -56854,7 +56868,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -56898,7 +56912,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -56943,7 +56957,7 @@
       <c r="U10" s="2"/>
       <c r="AE10" s="4"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -56988,7 +57002,7 @@
       <c r="U11" s="2"/>
       <c r="AE11" s="4"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -57033,7 +57047,7 @@
       <c r="U12" s="2"/>
       <c r="AE12" s="4"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -57078,7 +57092,7 @@
       <c r="U13" s="2"/>
       <c r="AE13" s="4"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -57123,7 +57137,7 @@
       <c r="U14" s="2"/>
       <c r="AE14" s="4"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -57168,7 +57182,7 @@
       <c r="U15" s="2"/>
       <c r="AE15" s="4"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -57213,7 +57227,7 @@
       <c r="U16" s="2"/>
       <c r="AE16" s="4"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -57258,7 +57272,7 @@
       <c r="U17" s="2"/>
       <c r="AE17" s="4"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -57303,7 +57317,7 @@
       <c r="U18" s="2"/>
       <c r="AE18" s="4"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -57348,7 +57362,7 @@
       <c r="U19" s="2"/>
       <c r="AE19" s="4"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -57393,7 +57407,7 @@
       <c r="U20" s="2"/>
       <c r="AE20" s="4"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -57438,7 +57452,7 @@
       <c r="U21" s="2"/>
       <c r="AE21" s="4"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -57483,7 +57497,7 @@
       <c r="U22" s="2"/>
       <c r="AE22" s="4"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -57528,7 +57542,7 @@
       <c r="U23" s="2"/>
       <c r="AE23" s="4"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -57575,7 +57589,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -57622,7 +57636,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -57669,7 +57683,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -57716,7 +57730,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -57763,7 +57777,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -57810,7 +57824,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -57857,7 +57871,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -57904,7 +57918,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -57951,7 +57965,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -57999,7 +58013,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -58043,7 +58057,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -58087,7 +58101,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -58131,7 +58145,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -58175,7 +58189,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -58219,7 +58233,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -58263,7 +58277,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -58307,7 +58321,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -58351,7 +58365,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -58396,7 +58410,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -58441,7 +58455,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -58486,7 +58500,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -58530,7 +58544,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -58574,7 +58588,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -58618,7 +58632,7 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -58662,7 +58676,7 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -58706,7 +58720,7 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -58750,7 +58764,7 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -58794,7 +58808,7 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -58838,7 +58852,7 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -58882,7 +58896,7 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -58926,7 +58940,7 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -58970,7 +58984,7 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -59017,7 +59031,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -59061,7 +59075,7 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -59105,7 +59119,7 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -59149,7 +59163,7 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -59193,7 +59207,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -59237,7 +59251,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -59281,7 +59295,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -59325,7 +59339,7 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -59369,7 +59383,7 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -59413,7 +59427,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -59457,7 +59471,7 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -59501,7 +59515,7 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -59545,7 +59559,7 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -59589,7 +59603,7 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -59633,7 +59647,7 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -59677,7 +59691,7 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -59721,7 +59735,7 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -59765,7 +59779,7 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -59809,7 +59823,7 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -59853,7 +59867,7 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -59897,7 +59911,7 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -59941,7 +59955,7 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -59985,7 +59999,7 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -60032,7 +60046,7 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -60079,7 +60093,7 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -60126,7 +60140,7 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -60173,7 +60187,7 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -60220,7 +60234,7 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -60267,7 +60281,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -60314,7 +60328,7 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -60361,7 +60375,7 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -60408,7 +60422,7 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -60455,7 +60469,7 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -60502,7 +60516,7 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -60549,7 +60563,7 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -60596,7 +60610,7 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -60643,7 +60657,7 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -60690,7 +60704,7 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -60737,7 +60751,7 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -60784,7 +60798,7 @@
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -60831,7 +60845,7 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -60878,7 +60892,7 @@
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -60922,7 +60936,7 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -60966,7 +60980,7 @@
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -61010,7 +61024,7 @@
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -61054,7 +61068,7 @@
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -61098,7 +61112,7 @@
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -61142,7 +61156,7 @@
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -61186,7 +61200,7 @@
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -61230,7 +61244,7 @@
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -61274,7 +61288,7 @@
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>25</v>
       </c>
@@ -61318,7 +61332,7 @@
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -61362,7 +61376,7 @@
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>25</v>
       </c>
@@ -61406,7 +61420,7 @@
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -61450,7 +61464,7 @@
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -61494,7 +61508,7 @@
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -61538,7 +61552,7 @@
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -61582,7 +61596,7 @@
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -61626,7 +61640,7 @@
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -61670,7 +61684,7 @@
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -61714,7 +61728,7 @@
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -61758,7 +61772,7 @@
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>27</v>
       </c>
@@ -61802,7 +61816,7 @@
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -61846,7 +61860,7 @@
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -61890,7 +61904,7 @@
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -61934,7 +61948,7 @@
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -61978,7 +61992,7 @@
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -62022,7 +62036,7 @@
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -62066,7 +62080,7 @@
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -62110,7 +62124,7 @@
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -62154,7 +62168,7 @@
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>29</v>
       </c>
@@ -62199,7 +62213,7 @@
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>29</v>
       </c>
@@ -62243,7 +62257,7 @@
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -62287,7 +62301,7 @@
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>29</v>
       </c>
@@ -62334,7 +62348,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -62381,7 +62395,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>29</v>
       </c>
@@ -62426,7 +62440,7 @@
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>29</v>
       </c>
@@ -62470,7 +62484,7 @@
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>29</v>
       </c>
@@ -62514,7 +62528,7 @@
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -62558,7 +62572,7 @@
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -62602,7 +62616,7 @@
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>29</v>
       </c>
@@ -62646,7 +62660,7 @@
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>29</v>
       </c>
@@ -62690,7 +62704,7 @@
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>29</v>
       </c>
@@ -62734,7 +62748,7 @@
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>29</v>
       </c>
@@ -62778,7 +62792,7 @@
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -62822,7 +62836,7 @@
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -62866,7 +62880,7 @@
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -62910,7 +62924,7 @@
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -62954,7 +62968,7 @@
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -62998,7 +63012,7 @@
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -63042,7 +63056,7 @@
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -63086,7 +63100,7 @@
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -63130,7 +63144,7 @@
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -63174,7 +63188,7 @@
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -63218,7 +63232,7 @@
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -63262,7 +63276,7 @@
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>31</v>
       </c>
@@ -63306,7 +63320,7 @@
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>31</v>
       </c>
@@ -63350,7 +63364,7 @@
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -63394,7 +63408,7 @@
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -63438,7 +63452,7 @@
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -63482,7 +63496,7 @@
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>31</v>
       </c>
@@ -63526,7 +63540,7 @@
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -63570,7 +63584,7 @@
       <c r="T158" s="2"/>
       <c r="U158" s="2"/>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -63614,7 +63628,7 @@
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -63658,7 +63672,7 @@
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -63702,7 +63716,7 @@
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -63746,7 +63760,7 @@
       <c r="T162" s="2"/>
       <c r="U162" s="2"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -63790,7 +63804,7 @@
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -63809,24 +63823,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="21" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="21" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -63891,7 +63905,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -63935,7 +63949,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -63979,7 +63993,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -64023,7 +64037,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -64067,7 +64081,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -64111,7 +64125,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -64155,7 +64169,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -64199,7 +64213,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -64243,7 +64257,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -64288,7 +64302,7 @@
       <c r="U10" s="2"/>
       <c r="AE10" s="4"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -64333,7 +64347,7 @@
       <c r="U11" s="2"/>
       <c r="AE11" s="4"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -64378,7 +64392,7 @@
       <c r="U12" s="2"/>
       <c r="AE12" s="4"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -64423,7 +64437,7 @@
       <c r="U13" s="2"/>
       <c r="AE13" s="4"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -64468,7 +64482,7 @@
       <c r="U14" s="2"/>
       <c r="AE14" s="4"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -64513,7 +64527,7 @@
       <c r="U15" s="2"/>
       <c r="AE15" s="4"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -64558,7 +64572,7 @@
       <c r="U16" s="2"/>
       <c r="AE16" s="4"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -64603,7 +64617,7 @@
       <c r="U17" s="2"/>
       <c r="AE17" s="4"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -64648,7 +64662,7 @@
       <c r="U18" s="2"/>
       <c r="AE18" s="4"/>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -64693,7 +64707,7 @@
       <c r="U19" s="2"/>
       <c r="AE19" s="4"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -64738,7 +64752,7 @@
       <c r="U20" s="2"/>
       <c r="AE20" s="4"/>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -64783,7 +64797,7 @@
       <c r="U21" s="2"/>
       <c r="AE21" s="4"/>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -64828,7 +64842,7 @@
       <c r="U22" s="2"/>
       <c r="AE22" s="4"/>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -64873,7 +64887,7 @@
       <c r="U23" s="2"/>
       <c r="AE23" s="4"/>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -64920,7 +64934,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -64967,7 +64981,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -65014,7 +65028,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -65061,7 +65075,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -65108,7 +65122,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -65155,7 +65169,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -65202,7 +65216,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -65249,7 +65263,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -65296,7 +65310,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -65344,7 +65358,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -65388,7 +65402,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -65432,7 +65446,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -65476,7 +65490,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -65520,7 +65534,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -65564,7 +65578,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -65608,7 +65622,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -65652,7 +65666,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -65696,7 +65710,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -65741,7 +65755,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -65786,7 +65800,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -65831,7 +65845,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -65875,7 +65889,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -65919,7 +65933,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -65963,7 +65977,7 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -66007,7 +66021,7 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -66051,7 +66065,7 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -66095,7 +66109,7 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -66139,7 +66153,7 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -66183,7 +66197,7 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -66227,7 +66241,7 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -66271,7 +66285,7 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -66315,7 +66329,7 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -66362,7 +66376,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -66406,7 +66420,7 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -66450,7 +66464,7 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -66494,7 +66508,7 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -66538,7 +66552,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -66582,7 +66596,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -66626,7 +66640,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -66670,7 +66684,7 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -66714,7 +66728,7 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -66758,7 +66772,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -66802,7 +66816,7 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -66846,7 +66860,7 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -66890,7 +66904,7 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -66934,7 +66948,7 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -66978,7 +66992,7 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -67022,7 +67036,7 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -67066,7 +67080,7 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -67110,7 +67124,7 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -67154,7 +67168,7 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -67198,7 +67212,7 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -67242,7 +67256,7 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -67286,7 +67300,7 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -67330,7 +67344,7 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -67377,7 +67391,7 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -67424,7 +67438,7 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -67471,7 +67485,7 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -67518,7 +67532,7 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -67565,7 +67579,7 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -67612,7 +67626,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -67659,7 +67673,7 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -67706,7 +67720,7 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -67753,7 +67767,7 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -67800,7 +67814,7 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -67847,7 +67861,7 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -67894,7 +67908,7 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -67941,7 +67955,7 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -67988,7 +68002,7 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -68035,7 +68049,7 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -68082,7 +68096,7 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -68129,7 +68143,7 @@
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -68176,7 +68190,7 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>18</v>
       </c>
@@ -68223,7 +68237,7 @@
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -68267,7 +68281,7 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -68311,7 +68325,7 @@
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -68355,7 +68369,7 @@
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -68399,7 +68413,7 @@
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -68443,7 +68457,7 @@
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -68487,7 +68501,7 @@
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>25</v>
       </c>
@@ -68531,7 +68545,7 @@
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>25</v>
       </c>
@@ -68575,7 +68589,7 @@
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -68619,7 +68633,7 @@
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>25</v>
       </c>
@@ -68663,7 +68677,7 @@
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -68707,7 +68721,7 @@
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>25</v>
       </c>
@@ -68751,7 +68765,7 @@
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -68795,7 +68809,7 @@
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -68839,7 +68853,7 @@
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -68883,7 +68897,7 @@
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -68927,7 +68941,7 @@
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -68971,7 +68985,7 @@
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -69015,7 +69029,7 @@
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>27</v>
       </c>
@@ -69059,7 +69073,7 @@
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>27</v>
       </c>
@@ -69103,7 +69117,7 @@
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>27</v>
       </c>
@@ -69147,7 +69161,7 @@
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>27</v>
       </c>
@@ -69191,7 +69205,7 @@
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>27</v>
       </c>
@@ -69235,7 +69249,7 @@
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>27</v>
       </c>
@@ -69279,7 +69293,7 @@
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>27</v>
       </c>
@@ -69323,7 +69337,7 @@
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>27</v>
       </c>
@@ -69367,7 +69381,7 @@
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -69411,7 +69425,7 @@
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -69455,7 +69469,7 @@
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>27</v>
       </c>
@@ -69499,7 +69513,7 @@
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>29</v>
       </c>
@@ -69544,7 +69558,7 @@
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>29</v>
       </c>
@@ -69588,7 +69602,7 @@
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -69632,7 +69646,7 @@
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>29</v>
       </c>
@@ -69679,7 +69693,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -69726,7 +69740,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>29</v>
       </c>
@@ -69771,7 +69785,7 @@
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>29</v>
       </c>
@@ -69815,7 +69829,7 @@
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>29</v>
       </c>
@@ -69859,7 +69873,7 @@
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -69903,7 +69917,7 @@
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -69947,7 +69961,7 @@
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>29</v>
       </c>
@@ -69991,7 +70005,7 @@
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>29</v>
       </c>
@@ -70035,7 +70049,7 @@
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>29</v>
       </c>
@@ -70079,7 +70093,7 @@
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>29</v>
       </c>
@@ -70123,7 +70137,7 @@
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -70167,7 +70181,7 @@
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -70211,7 +70225,7 @@
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -70255,7 +70269,7 @@
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -70299,7 +70313,7 @@
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -70343,7 +70357,7 @@
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>31</v>
       </c>
@@ -70387,7 +70401,7 @@
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>31</v>
       </c>
@@ -70431,7 +70445,7 @@
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>31</v>
       </c>
@@ -70475,7 +70489,7 @@
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -70519,7 +70533,7 @@
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -70563,7 +70577,7 @@
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -70607,7 +70621,7 @@
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>31</v>
       </c>
@@ -70651,7 +70665,7 @@
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>31</v>
       </c>
@@ -70695,7 +70709,7 @@
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>31</v>
       </c>
@@ -70739,7 +70753,7 @@
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>31</v>
       </c>
@@ -70783,7 +70797,7 @@
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>31</v>
       </c>
@@ -70827,7 +70841,7 @@
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>31</v>
       </c>
@@ -70871,7 +70885,7 @@
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -70915,7 +70929,7 @@
       <c r="T158" s="2"/>
       <c r="U158" s="2"/>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -70959,7 +70973,7 @@
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -71003,7 +71017,7 @@
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -71047,7 +71061,7 @@
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -71091,7 +71105,7 @@
       <c r="T162" s="2"/>
       <c r="U162" s="2"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -71135,7 +71149,7 @@
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>33</v>
       </c>
@@ -71149,6 +71163,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3f70931c-076d-4911-8445-3d63a05d5d77">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="211c10b5-2e50-4eb6-8dbc-d647566846cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002054975614A32247A68A1AEABF75B0C5" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="2c2c26a7e2a2b889127ff37165d3782f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3f70931c-076d-4911-8445-3d63a05d5d77" xmlns:ns3="211c10b5-2e50-4eb6-8dbc-d647566846cc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a47a2804dae3bd566b7da740440b21c7" ns2:_="" ns3:_="">
     <xsd:import namespace="3f70931c-076d-4911-8445-3d63a05d5d77"/>
@@ -71325,34 +71359,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3f70931c-076d-4911-8445-3d63a05d5d77">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="211c10b5-2e50-4eb6-8dbc-d647566846cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B903D05-D10B-4A45-9313-0684009C2921}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B34ECA22-8BCE-4126-B60E-32137912B65D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D24DB4B6-91E7-41C8-8EC4-2C259C8FACE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D24DB4B6-91E7-41C8-8EC4-2C259C8FACE4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3f70931c-076d-4911-8445-3d63a05d5d77"/>
+    <ds:schemaRef ds:uri="211c10b5-2e50-4eb6-8dbc-d647566846cc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B34ECA22-8BCE-4126-B60E-32137912B65D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B903D05-D10B-4A45-9313-0684009C2921}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3f70931c-076d-4911-8445-3d63a05d5d77"/>
+    <ds:schemaRef ds:uri="211c10b5-2e50-4eb6-8dbc-d647566846cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>